--- a/Reports/heart/heart_multifairgan_50_02.xlsx
+++ b/Reports/heart/heart_multifairgan_50_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1325</v>
+        <v>0.1725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0109</v>
+        <v>0.1725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9795</v>
+        <v>1.3652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9432</v>
+        <v>0.8908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0551</v>
+        <v>-0.3125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9386</v>
+        <v>0.6153999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0392</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9444</v>
+        <v>1.1111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0498</v>
+        <v>-0.08450000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8087</v>
+        <v>0.7185</v>
       </c>
     </row>
     <row r="13">
